--- a/result_table.xlsx
+++ b/result_table.xlsx
@@ -429,7 +429,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6214-IBAS</t>
+          <t>6114</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -2530,7 +2530,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6214-IBAS</t>
+          <t>6114</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -4631,7 +4631,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6214-IBAS</t>
+          <t>6114</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -6732,7 +6732,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6214-IBAS</t>
+          <t>6114</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -8833,7 +8833,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6214-IBAS</t>
+          <t>6114</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -10934,7 +10934,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6214-IBAS</t>
+          <t>6114</t>
         </is>
       </c>
       <c r="B1" t="n">

--- a/result_table.xlsx
+++ b/result_table.xlsx
@@ -429,7 +429,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6114</t>
+          <t>testestse</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -2530,7 +2530,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6114</t>
+          <t>testestse</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -4631,7 +4631,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6114</t>
+          <t>testestse</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -6732,7 +6732,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6114</t>
+          <t>testestse</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -8833,7 +8833,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6114</t>
+          <t>testestse</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -10934,7 +10934,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6114</t>
+          <t>testestse</t>
         </is>
       </c>
       <c r="B1" t="n">
